--- a/ams_database.xlsx
+++ b/ams_database.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="6" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Aircraft" sheetId="1" state="visible" r:id="rId1"/>
@@ -22,7 +22,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -43,6 +43,12 @@
       <sz val="11"/>
     </font>
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
       <b val="1"/>
     </font>
   </fonts>
@@ -54,7 +60,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -85,6 +91,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -94,7 +115,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
@@ -105,19 +126,10 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -126,7 +138,13 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -502,41 +520,41 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="6" min="2" max="2"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="2" max="2"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="5" max="5"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Id</t>
         </is>
       </c>
-      <c r="B1" s="10" t="inlineStr">
+      <c r="B1" s="7" t="inlineStr">
         <is>
           <t>Flight Number</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Aircraft Name</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="6" t="inlineStr">
         <is>
           <t>Aircraft Model</t>
         </is>
       </c>
-      <c r="E1" s="9" t="inlineStr">
+      <c r="E1" s="6" t="inlineStr">
         <is>
           <t>Manufacturing Year</t>
         </is>
       </c>
-      <c r="F1" s="10" t="inlineStr">
+      <c r="F1" s="7" t="inlineStr">
         <is>
           <t>Airline</t>
         </is>
@@ -551,17 +569,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C2" s="7" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Airbus</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>A340</t>
         </is>
       </c>
-      <c r="E2" s="7" t="inlineStr">
+      <c r="E2" s="5" t="inlineStr">
         <is>
           <t>Turkish Airlines</t>
         </is>
@@ -579,17 +597,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Airbus</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>A380</t>
         </is>
       </c>
-      <c r="E3" s="7" t="inlineStr">
+      <c r="E3" s="5" t="inlineStr">
         <is>
           <t>Turkish Airlines</t>
         </is>
@@ -607,17 +625,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Airbus</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>A450</t>
         </is>
       </c>
-      <c r="E4" s="7" t="inlineStr">
+      <c r="E4" s="5" t="inlineStr">
         <is>
           <t>Turkish Airlines</t>
         </is>
@@ -635,17 +653,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Airbus</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>A250</t>
         </is>
       </c>
-      <c r="E5" s="7" t="inlineStr">
+      <c r="E5" s="5" t="inlineStr">
         <is>
           <t>Pegasus</t>
         </is>
@@ -663,17 +681,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Airbus</t>
         </is>
       </c>
-      <c r="D6" s="7" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>QS6000</t>
         </is>
       </c>
-      <c r="E6" s="7" t="inlineStr">
+      <c r="E6" s="5" t="inlineStr">
         <is>
           <t>Aegean</t>
         </is>
@@ -691,17 +709,17 @@
           <t>-</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Airbus</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>QS6500</t>
         </is>
       </c>
-      <c r="E7" s="7" t="inlineStr">
+      <c r="E7" s="5" t="inlineStr">
         <is>
           <t>Aegean</t>
         </is>
@@ -717,17 +735,17 @@
       <c r="B8" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="C8" s="7" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Airbus</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>A6000</t>
         </is>
       </c>
-      <c r="E8" s="7" t="inlineStr">
+      <c r="E8" s="5" t="inlineStr">
         <is>
           <t>Sun Express</t>
         </is>
@@ -747,7 +765,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -755,23 +773,23 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Flight Number</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Departure</t>
         </is>
@@ -781,12 +799,12 @@
       <c r="A2" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>04 January</t>
         </is>
       </c>
-      <c r="C2" s="7" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>02:10</t>
         </is>
@@ -796,12 +814,12 @@
       <c r="A3" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>04 January</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>09:30</t>
         </is>
@@ -811,12 +829,12 @@
       <c r="A4" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>04 January</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>09:15</t>
         </is>
@@ -826,12 +844,12 @@
       <c r="A5" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>04 January</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>09:00</t>
         </is>
@@ -841,12 +859,12 @@
       <c r="A6" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B6" s="7" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>04 January</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>10:50</t>
         </is>
@@ -856,12 +874,12 @@
       <c r="A7" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>05 January</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>12:30</t>
         </is>
@@ -871,14 +889,344 @@
       <c r="A8" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B8" s="7" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>12 January</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>05:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="19.5" customHeight="1">
+      <c r="A9" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>03 January</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="inlineStr">
+        <is>
+          <t>13:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="19.5" customHeight="1">
+      <c r="A10" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>03 January</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="inlineStr">
+        <is>
+          <t>12:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="19.5" customHeight="1">
+      <c r="A11" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>03 February</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="inlineStr">
+        <is>
+          <t>11:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="19.5" customHeight="1">
+      <c r="A12" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>03 February</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="inlineStr">
+        <is>
+          <t>12:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="19.5" customHeight="1">
+      <c r="A13" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>03 February</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>11:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="19.5" customHeight="1">
+      <c r="A14" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>03 February</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="inlineStr">
+        <is>
+          <t>13:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="19.5" customHeight="1">
+      <c r="A15" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>03 February</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="inlineStr">
+        <is>
+          <t>13:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="19.5" customHeight="1">
+      <c r="A16" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>03 February</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="inlineStr">
+        <is>
+          <t>14:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="19.5" customHeight="1">
+      <c r="A17" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>03 February</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="inlineStr">
+        <is>
+          <t>13:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="19.5" customHeight="1">
+      <c r="A18" s="9" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>04 February</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="inlineStr">
+        <is>
+          <t>01:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>12 March</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>12:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>14 March</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>14:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>15</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>15 February</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>15:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>16</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>22 February</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>20:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>35</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>22 February</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>22:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>16</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>16 February</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>16:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>16</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>16 March</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>16:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>16</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>16 April</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>16:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>15</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>15 February</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>23:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>35</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>22 January</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>22:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>16</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>16 March</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>16:16</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>16</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>05 February</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>11:00</t>
         </is>
       </c>
     </row>
@@ -901,41 +1249,41 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="6" min="4" max="4"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="6" min="5" max="5"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="7" min="6" max="6"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="4" max="4"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="10" t="inlineStr">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Flight Number</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Departure Airport</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Arrival Airport</t>
         </is>
       </c>
-      <c r="D1" s="10" t="inlineStr">
+      <c r="D1" s="7" t="inlineStr">
         <is>
           <t>Duration (Hour)</t>
         </is>
       </c>
-      <c r="E1" s="10" t="inlineStr">
+      <c r="E1" s="7" t="inlineStr">
         <is>
           <t>Duration (Minute)</t>
         </is>
       </c>
-      <c r="F1" s="9" t="inlineStr">
+      <c r="F1" s="6" t="inlineStr">
         <is>
           <t>Airport Couple</t>
         </is>
@@ -945,12 +1293,12 @@
       <c r="A2" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>IST</t>
         </is>
       </c>
-      <c r="C2" s="7" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>ESB</t>
         </is>
@@ -961,7 +1309,7 @@
       <c r="E2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="F2" s="7" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>IST-ESB</t>
         </is>
@@ -971,12 +1319,12 @@
       <c r="A3" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>ATH</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>CPH</t>
         </is>
@@ -987,7 +1335,7 @@
       <c r="E3" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="F3" s="7" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>ATH-CPH</t>
         </is>
@@ -997,12 +1345,12 @@
       <c r="A4" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>IST</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>ADB</t>
         </is>
@@ -1013,7 +1361,7 @@
       <c r="E4" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="F4" s="7" t="inlineStr">
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>IST-ADB</t>
         </is>
@@ -1023,12 +1371,12 @@
       <c r="A5" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>ESB</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>ADB</t>
         </is>
@@ -1039,7 +1387,7 @@
       <c r="E5" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="F5" s="7" t="inlineStr">
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>ESB-ADB</t>
         </is>
@@ -1049,12 +1397,12 @@
       <c r="A6" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B6" s="7" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>CPH</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>ADB</t>
         </is>
@@ -1065,7 +1413,7 @@
       <c r="E6" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="F6" s="7" t="inlineStr">
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>CPH-ADB</t>
         </is>
@@ -1075,12 +1423,12 @@
       <c r="A7" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>ADB</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>CPH</t>
         </is>
@@ -1091,7 +1439,7 @@
       <c r="E7" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="F7" s="7" t="inlineStr">
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>ADB-CPH</t>
         </is>
@@ -1108,7 +1456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1117,32 +1465,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="inlineStr">
+      <c r="A1" s="10" t="inlineStr">
         <is>
           <t>Flight Number</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="10" t="inlineStr">
         <is>
           <t>Day</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="10" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="D1" s="11" t="inlineStr">
+      <c r="D1" s="10" t="inlineStr">
         <is>
           <t>Departure</t>
         </is>
       </c>
-      <c r="E1" s="11" t="inlineStr">
+      <c r="E1" s="10" t="inlineStr">
         <is>
           <t>Gate</t>
         </is>
       </c>
-      <c r="F1" s="11" t="inlineStr">
+      <c r="F1" s="10" t="inlineStr">
         <is>
           <t>Status</t>
         </is>
@@ -1150,7 +1498,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -1159,232 +1507,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12 January</t>
+          <t>05 February</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>05:45</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>C4A</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>SCHEDULED</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>35</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>05 January</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12:40</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>G4B</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>DELAYED</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>16</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>04 January</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>10:55</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>I9F</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>LAST CALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>15</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>04 January</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>02:10</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>G8D</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>15</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Wednesday</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>09:50</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>D3E</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>13</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>04 January</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>09:30</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>B2D</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>35</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>04 January</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>09:15</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>E1B</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>52</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>04 January</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>09:00</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>G9C</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>ACTIVE</t>
+          <t>PAST</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1534,7 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:C6"/>
@@ -1406,101 +1544,106 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="11" t="inlineStr">
+    <row r="1" ht="19.5" customHeight="1">
+      <c r="A1" s="7" t="inlineStr">
         <is>
           <t>Flight Number</t>
         </is>
       </c>
-      <c r="B1" s="11" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Pilot Name</t>
         </is>
       </c>
-      <c r="C1" s="11" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Pilot Surname</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" ht="19.5" customHeight="1">
+      <c r="A2" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>George</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Pilot</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" ht="19.5" customHeight="1">
+      <c r="A3" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Kamran</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Yaldız</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" ht="19.5" customHeight="1">
+      <c r="A4" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Mike</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Pilot</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" ht="19.5" customHeight="1">
+      <c r="A5" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>George</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Pilot</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" ht="19.5" customHeight="1">
+      <c r="A6" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>George</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Pilot</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1518,74 +1661,74 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="1" max="1"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="9" t="inlineStr">
+      <c r="A1" s="6" t="inlineStr">
         <is>
           <t>Flight Number</t>
         </is>
       </c>
-      <c r="B1" s="9" t="inlineStr">
+      <c r="B1" s="6" t="inlineStr">
         <is>
           <t>Day of Week</t>
         </is>
       </c>
-      <c r="C1" s="9" t="inlineStr">
+      <c r="C1" s="6" t="inlineStr">
         <is>
           <t>Departure</t>
         </is>
       </c>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="7" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="C2" s="7" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>08:30</t>
         </is>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="7" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
         <is>
           <t>35</t>
         </is>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>08:50</t>
         </is>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="7" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Wednesday</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>09:50</t>
         </is>
@@ -1604,24 +1747,24 @@
   </sheetPr>
   <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="6" min="1" max="1"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="7" min="2" max="2"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="7" min="3" max="3"/>
-    <col width="21.71928571428571" bestFit="1" customWidth="1" style="7" min="4" max="4"/>
-    <col width="11.005" bestFit="1" customWidth="1" style="8" min="5" max="5"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="6" min="6" max="6"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="7" min="7" max="7"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="7" min="8" max="8"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="7" min="9" max="9"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="7" min="10" max="10"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="7" min="11" max="11"/>
-    <col width="14.14785714285714" bestFit="1" customWidth="1" style="7" min="12" max="12"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="21.71928571428571" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="11.005" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="4" min="6" max="6"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="8" max="8"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="9" max="9"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="10" max="10"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="11" max="11"/>
+    <col width="14.14785714285714" bestFit="1" customWidth="1" style="5" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
@@ -1630,17 +1773,17 @@
           <t>Id</t>
         </is>
       </c>
-      <c r="B1" s="7" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>Name</t>
         </is>
       </c>
-      <c r="C1" s="7" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>Surname</t>
         </is>
       </c>
-      <c r="D1" s="7" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>Mail</t>
         </is>
@@ -1655,32 +1798,32 @@
           <t>Password</t>
         </is>
       </c>
-      <c r="G1" s="7" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>Person type</t>
         </is>
       </c>
-      <c r="H1" s="7" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>Street</t>
         </is>
       </c>
-      <c r="I1" s="7" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>City</t>
         </is>
       </c>
-      <c r="J1" s="7" t="inlineStr">
+      <c r="J1" s="5" t="inlineStr">
         <is>
           <t>State</t>
         </is>
       </c>
-      <c r="K1" s="7" t="inlineStr">
+      <c r="K1" s="5" t="inlineStr">
         <is>
           <t>Zipcode</t>
         </is>
       </c>
-      <c r="L1" s="7" t="inlineStr">
+      <c r="L1" s="5" t="inlineStr">
         <is>
           <t>Country</t>
         </is>
@@ -1690,17 +1833,17 @@
       <c r="A2" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="B2" s="5" t="inlineStr">
         <is>
           <t>Yucel</t>
         </is>
       </c>
-      <c r="C2" s="7" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>Ergan</t>
         </is>
       </c>
-      <c r="D2" s="7" t="inlineStr">
+      <c r="D2" s="5" t="inlineStr">
         <is>
           <t>yucel2069@hotmail.com</t>
         </is>
@@ -1709,100 +1852,98 @@
       <c r="F2" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="G2" s="7" t="inlineStr">
+      <c r="G2" s="5" t="inlineStr">
         <is>
           <t>Customer</t>
         </is>
       </c>
-      <c r="H2" s="7" t="n"/>
-      <c r="I2" s="7" t="n"/>
-      <c r="J2" s="7" t="n"/>
-      <c r="K2" s="7" t="n"/>
-      <c r="L2" s="7" t="n"/>
+      <c r="H2" s="5" t="n"/>
+      <c r="I2" s="5" t="n"/>
+      <c r="J2" s="5" t="n"/>
+      <c r="K2" s="5" t="n"/>
+      <c r="L2" s="5" t="n"/>
     </row>
     <row r="3" ht="19.5" customHeight="1">
       <c r="A3" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="B3" s="5" t="inlineStr">
         <is>
           <t>Batuhan</t>
         </is>
       </c>
-      <c r="C3" s="7" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>Parlak</t>
         </is>
       </c>
-      <c r="D3" s="7" t="inlineStr">
+      <c r="D3" s="5" t="inlineStr">
         <is>
           <t>batuhan@gmail.com</t>
         </is>
       </c>
-      <c r="E3" s="3" t="inlineStr"/>
-      <c r="F3" s="1" t="inlineStr">
-        <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="G3" s="7" t="inlineStr">
+      <c r="E3" s="3" t="n"/>
+      <c r="F3" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="G3" s="5" t="inlineStr">
         <is>
           <t>Customer</t>
         </is>
       </c>
-      <c r="H3" s="7" t="inlineStr"/>
-      <c r="I3" s="7" t="inlineStr"/>
-      <c r="J3" s="7" t="inlineStr"/>
-      <c r="K3" s="7" t="inlineStr"/>
-      <c r="L3" s="7" t="inlineStr"/>
+      <c r="H3" s="5" t="n"/>
+      <c r="I3" s="5" t="n"/>
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="5" t="n"/>
+      <c r="L3" s="5" t="n"/>
     </row>
     <row r="4" ht="19.5" customHeight="1">
       <c r="A4" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="B4" s="5" t="inlineStr">
         <is>
           <t>Kamran</t>
         </is>
       </c>
-      <c r="C4" s="7" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>Yaldız</t>
         </is>
       </c>
-      <c r="D4" s="7" t="inlineStr">
+      <c r="D4" s="5" t="inlineStr">
         <is>
           <t>kyagiz09@gmail.com</t>
         </is>
       </c>
       <c r="E4" s="1" t="n"/>
       <c r="F4" s="1" t="n"/>
-      <c r="G4" s="7" t="inlineStr">
+      <c r="G4" s="5" t="inlineStr">
         <is>
           <t>Pilot</t>
         </is>
       </c>
-      <c r="H4" s="7" t="n"/>
-      <c r="I4" s="7" t="n"/>
-      <c r="J4" s="7" t="n"/>
-      <c r="K4" s="7" t="n"/>
-      <c r="L4" s="7" t="n"/>
+      <c r="H4" s="5" t="n"/>
+      <c r="I4" s="5" t="n"/>
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="5" t="n"/>
+      <c r="L4" s="5" t="n"/>
     </row>
     <row r="5" ht="19.5" customHeight="1">
       <c r="A5" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B5" s="7" t="inlineStr">
+      <c r="B5" s="5" t="inlineStr">
         <is>
           <t>Turan</t>
         </is>
       </c>
-      <c r="C5" s="7" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>Kaşgar</t>
         </is>
       </c>
-      <c r="D5" s="7" t="inlineStr">
+      <c r="D5" s="5" t="inlineStr">
         <is>
           <t>kasgar@media.com</t>
         </is>
@@ -1813,32 +1954,32 @@
           <t>kasgar123</t>
         </is>
       </c>
-      <c r="G5" s="7" t="inlineStr">
+      <c r="G5" s="5" t="inlineStr">
         <is>
           <t>Customer</t>
         </is>
       </c>
-      <c r="H5" s="7" t="n"/>
-      <c r="I5" s="7" t="n"/>
-      <c r="J5" s="7" t="n"/>
-      <c r="K5" s="7" t="n"/>
-      <c r="L5" s="7" t="n"/>
+      <c r="H5" s="5" t="n"/>
+      <c r="I5" s="5" t="n"/>
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="5" t="n"/>
+      <c r="L5" s="5" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B6" s="7" t="inlineStr">
+      <c r="B6" s="5" t="inlineStr">
         <is>
           <t>Turan</t>
         </is>
       </c>
-      <c r="C6" s="7" t="inlineStr">
+      <c r="C6" s="5" t="inlineStr">
         <is>
           <t>Kaşgar</t>
         </is>
       </c>
-      <c r="D6" s="7" t="inlineStr">
+      <c r="D6" s="5" t="inlineStr">
         <is>
           <t>trnksgr@media.com</t>
         </is>
@@ -1851,32 +1992,32 @@
           <t>kasgar123</t>
         </is>
       </c>
-      <c r="G6" s="7" t="inlineStr">
+      <c r="G6" s="5" t="inlineStr">
         <is>
           <t>Customer</t>
         </is>
       </c>
-      <c r="H6" s="7" t="n"/>
-      <c r="I6" s="7" t="n"/>
-      <c r="J6" s="7" t="n"/>
-      <c r="K6" s="7" t="n"/>
-      <c r="L6" s="7" t="n"/>
+      <c r="H6" s="5" t="n"/>
+      <c r="I6" s="5" t="n"/>
+      <c r="J6" s="5" t="n"/>
+      <c r="K6" s="5" t="n"/>
+      <c r="L6" s="5" t="n"/>
     </row>
     <row r="7" ht="19.5" customHeight="1">
       <c r="A7" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B7" s="7" t="inlineStr">
+      <c r="B7" s="5" t="inlineStr">
         <is>
           <t>George</t>
         </is>
       </c>
-      <c r="C7" s="7" t="inlineStr">
+      <c r="C7" s="5" t="inlineStr">
         <is>
           <t>Pilot</t>
         </is>
       </c>
-      <c r="D7" s="7" t="inlineStr">
+      <c r="D7" s="5" t="inlineStr">
         <is>
           <t>george@pilot.com</t>
         </is>
@@ -1885,32 +2026,32 @@
       <c r="F7" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="G7" s="7" t="inlineStr">
+      <c r="G7" s="5" t="inlineStr">
         <is>
           <t>Pilot</t>
         </is>
       </c>
-      <c r="H7" s="7" t="n"/>
-      <c r="I7" s="7" t="n"/>
-      <c r="J7" s="7" t="n"/>
-      <c r="K7" s="7" t="n"/>
-      <c r="L7" s="7" t="n"/>
+      <c r="H7" s="5" t="n"/>
+      <c r="I7" s="5" t="n"/>
+      <c r="J7" s="5" t="n"/>
+      <c r="K7" s="5" t="n"/>
+      <c r="L7" s="5" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B8" s="7" t="inlineStr">
+      <c r="B8" s="5" t="inlineStr">
         <is>
           <t>Osman</t>
         </is>
       </c>
-      <c r="C8" s="7" t="inlineStr">
+      <c r="C8" s="5" t="inlineStr">
         <is>
           <t>Pilot</t>
         </is>
       </c>
-      <c r="D8" s="7" t="inlineStr">
+      <c r="D8" s="5" t="inlineStr">
         <is>
           <t>osman@pilot.com</t>
         </is>
@@ -1919,32 +2060,32 @@
       <c r="F8" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="G8" s="7" t="inlineStr">
+      <c r="G8" s="5" t="inlineStr">
         <is>
           <t>Pilot</t>
         </is>
       </c>
-      <c r="H8" s="7" t="n"/>
-      <c r="I8" s="7" t="n"/>
-      <c r="J8" s="7" t="n"/>
-      <c r="K8" s="7" t="n"/>
-      <c r="L8" s="7" t="n"/>
+      <c r="H8" s="5" t="n"/>
+      <c r="I8" s="5" t="n"/>
+      <c r="J8" s="5" t="n"/>
+      <c r="K8" s="5" t="n"/>
+      <c r="L8" s="5" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
       <c r="A9" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B9" s="7" t="inlineStr">
+      <c r="B9" s="5" t="inlineStr">
         <is>
           <t>Mike</t>
         </is>
       </c>
-      <c r="C9" s="7" t="inlineStr">
+      <c r="C9" s="5" t="inlineStr">
         <is>
           <t>Pilot</t>
         </is>
       </c>
-      <c r="D9" s="7" t="inlineStr">
+      <c r="D9" s="5" t="inlineStr">
         <is>
           <t>mike@pilot.com</t>
         </is>
@@ -1953,52 +2094,52 @@
       <c r="F9" s="1" t="n">
         <v>123</v>
       </c>
-      <c r="G9" s="7" t="inlineStr">
+      <c r="G9" s="5" t="inlineStr">
         <is>
           <t>Pilot</t>
         </is>
       </c>
-      <c r="H9" s="7" t="n"/>
-      <c r="I9" s="7" t="n"/>
-      <c r="J9" s="7" t="n"/>
-      <c r="K9" s="7" t="n"/>
-      <c r="L9" s="7" t="n"/>
+      <c r="H9" s="5" t="n"/>
+      <c r="I9" s="5" t="n"/>
+      <c r="J9" s="5" t="n"/>
+      <c r="K9" s="5" t="n"/>
+      <c r="L9" s="5" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="4" t="n">
+      <c r="A10" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B10" s="7" t="inlineStr">
+      <c r="B10" s="5" t="inlineStr">
         <is>
           <t>Admin</t>
         </is>
       </c>
-      <c r="C10" s="7" t="inlineStr">
+      <c r="C10" s="5" t="inlineStr">
         <is>
           <t>Admin</t>
         </is>
       </c>
-      <c r="D10" s="7" t="inlineStr">
+      <c r="D10" s="5" t="inlineStr">
         <is>
           <t>admin</t>
         </is>
       </c>
-      <c r="E10" s="8" t="n"/>
-      <c r="F10" s="4" t="inlineStr">
+      <c r="E10" s="1" t="n"/>
+      <c r="F10" s="1" t="inlineStr">
         <is>
           <t>admin123</t>
         </is>
       </c>
-      <c r="G10" s="7" t="inlineStr">
+      <c r="G10" s="5" t="inlineStr">
         <is>
           <t>Admin</t>
         </is>
       </c>
-      <c r="H10" s="7" t="n"/>
-      <c r="I10" s="7" t="n"/>
-      <c r="J10" s="7" t="n"/>
-      <c r="K10" s="7" t="n"/>
-      <c r="L10" s="7" t="n"/>
+      <c r="H10" s="5" t="n"/>
+      <c r="I10" s="5" t="n"/>
+      <c r="J10" s="5" t="n"/>
+      <c r="K10" s="5" t="n"/>
+      <c r="L10" s="5" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
